--- a/TCER.xlsx
+++ b/TCER.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
   <si>
     <t>Req #</t>
   </si>
@@ -56,12 +56,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>findOrderById(Long existingId)</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>ProductOrderService</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>GET: /orders/1"</t>
   </si>
   <si>
-    <t>(1, "abc@abc.com", "address1", 1)</t>
-  </si>
-  <si>
     <t>GET: /orders/-1</t>
   </si>
   <si>
@@ -99,6 +90,9 @@
   </si>
   <si>
     <t>POST: /orders -&gt; saveOrder(-1, "abc@abc.com", "address1", 1)</t>
+  </si>
+  <si>
+    <t>Order(1, "abc@abc.com", "address1", 1)</t>
   </si>
 </sst>
 </file>
@@ -427,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,12 +436,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -475,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -509,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -526,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -537,7 +531,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,13 +559,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -582,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -599,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -616,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -627,7 +621,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,13 +649,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -689,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -706,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
